--- a/InputData/elec/FoOMCtiL/Fraction of OM Costs that is Labor.xlsx
+++ b/InputData/elec/FoOMCtiL/Fraction of OM Costs that is Labor.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\FoOMCtiL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EvelineDB\Dropbox\Projeto EPS-WRI\elec_Eveline\Apil 2020\revissão so do about\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1A7C5B7-78A8-4BF5-AD71-4589BD21A171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="22995" windowHeight="10800"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="FoOMCtiL" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>FoOMCtiL Fraction of O&amp;M Costs that is Labor</t>
   </si>
@@ -59,12 +68,15 @@
   </si>
   <si>
     <t>Frac of O&amp;M Costs (dimensionless)</t>
+  </si>
+  <si>
+    <t>We are assuming the information suggested by the EUA model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,7 +135,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -140,7 +152,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -215,6 +227,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -250,6 +279,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -425,21 +471,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="14.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -447,54 +496,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>2009</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -502,25 +556,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
